--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/165a14dcf549e91a/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77950AB6-9C8B-4850-AEA7-3BF63E72D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{77950AB6-9C8B-4850-AEA7-3BF63E72D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A316644-7DC0-49BF-B112-D49EF612AB56}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="1668" windowWidth="17280" windowHeight="8880" xr2:uid="{60D74611-58EF-4650-85C9-6FAF66FAB873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60D74611-58EF-4650-85C9-6FAF66FAB873}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,12 +158,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42029F9D-43D0-4872-9BB0-B859899BB03A}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,17 +512,17 @@
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -593,11 +609,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -654,8 +671,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+    <row r="23" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/165a14dcf549e91a/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\firstproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{77950AB6-9C8B-4850-AEA7-3BF63E72D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A316644-7DC0-49BF-B112-D49EF612AB56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968976DA-45B7-459B-84E7-AE2CB8EF9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60D74611-58EF-4650-85C9-6FAF66FAB873}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>quantily</t>
   </si>
   <si>
-    <t>receiver_id</t>
-  </si>
-  <si>
     <t>receiver_name</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>customers</t>
+  </si>
+  <si>
+    <t>receiver_phone</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
         <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
     <row r="23" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\firstproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968976DA-45B7-459B-84E7-AE2CB8EF9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6027217C-4844-4E4D-8196-093847E949A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60D74611-58EF-4650-85C9-6FAF66FAB873}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>bill</t>
-  </si>
-  <si>
     <t>time_ordered</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>manufacturer_id</t>
   </si>
   <si>
-    <t>details_bill</t>
-  </si>
-  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>receiver_phone</t>
+  </si>
+  <si>
+    <t>bills</t>
+  </si>
+  <si>
+    <t>details_bills</t>
+  </si>
+  <si>
+    <t>staffs</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,16 +514,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -556,18 +556,18 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -598,24 +598,24 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -636,60 +636,60 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
